--- a/data/input/tree/meaningfulness/ecology/resources.xlsx
+++ b/data/input/tree/meaningfulness/ecology/resources.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.7082066869300913</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3281249999999999</v>
+        <v>0.9042553191489362</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/tree/meaningfulness/ecology/resources.xlsx
+++ b/data/input/tree/meaningfulness/ecology/resources.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6413524900075618</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7082066869300913</v>
+        <v>0.5277087609376687</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9042553191489362</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
